--- a/文書管理フォルダ/外部設計用フォルダ/外部設計書類/DB定義書.xlsx
+++ b/文書管理フォルダ/外部設計用フォルダ/外部設計書類/DB定義書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\c1 資料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-1\文書管理フォルダ\外部設計用フォルダ\外部設計書類\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9CB71AB-0EB8-4894-964F-A6A6E7D27F76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FA918D6-50F0-4170-AC97-51C3348C87A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="15024" windowHeight="11712" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -1096,25 +1096,25 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5" customWidth="1"/>
-    <col min="4" max="4" width="17.875" customWidth="1"/>
-    <col min="5" max="5" width="21.375" customWidth="1"/>
-    <col min="6" max="6" width="58.625" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.44140625" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" customWidth="1"/>
+    <col min="6" max="6" width="58.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="19.2" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1126,7 +1126,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1138,19 +1138,19 @@
         <v>44355</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
@@ -1167,7 +1167,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" s="3">
         <v>1</v>
       </c>
@@ -1182,7 +1182,7 @@
       </c>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9" s="3">
         <v>2</v>
       </c>
@@ -1197,7 +1197,7 @@
       </c>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10" s="3">
         <v>3</v>
       </c>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B11" s="3">
         <v>4</v>
       </c>
@@ -1227,7 +1227,7 @@
       </c>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B12" s="3">
         <v>5</v>
       </c>
@@ -1242,7 +1242,7 @@
       </c>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B13" s="3">
         <v>6</v>
       </c>
@@ -1251,7 +1251,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B14" s="3">
         <v>7</v>
       </c>
@@ -1260,7 +1260,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B15" s="3">
         <v>8</v>
       </c>
@@ -1269,7 +1269,7 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B16" s="3">
         <v>9</v>
       </c>
@@ -1278,7 +1278,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" s="3">
         <v>10</v>
       </c>
@@ -1287,7 +1287,7 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="3">
         <v>11</v>
       </c>
@@ -1296,7 +1296,7 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" s="3">
         <v>12</v>
       </c>
@@ -1305,7 +1305,7 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="3">
         <v>13</v>
       </c>
@@ -1314,7 +1314,7 @@
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" s="3">
         <v>14</v>
       </c>
@@ -1323,7 +1323,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" s="3">
         <v>15</v>
       </c>
@@ -1332,7 +1332,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" s="3">
         <v>16</v>
       </c>
@@ -1341,7 +1341,7 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" s="3">
         <v>17</v>
       </c>
@@ -1350,7 +1350,7 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" s="3">
         <v>18</v>
       </c>
@@ -1359,7 +1359,7 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" s="3">
         <v>19</v>
       </c>
@@ -1368,7 +1368,7 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" s="3">
         <v>20</v>
       </c>
@@ -1377,7 +1377,7 @@
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B28" s="3">
         <v>21</v>
       </c>
@@ -1386,7 +1386,7 @@
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29" s="3">
         <v>22</v>
       </c>
@@ -1395,7 +1395,7 @@
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B30" s="3">
         <v>23</v>
       </c>
@@ -1404,7 +1404,7 @@
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B31" s="3">
         <v>24</v>
       </c>
@@ -1413,7 +1413,7 @@
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B32" s="3">
         <v>25</v>
       </c>
@@ -1422,7 +1422,7 @@
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" s="3">
         <v>26</v>
       </c>
@@ -1431,7 +1431,7 @@
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B34" s="3">
         <v>27</v>
       </c>
@@ -1440,7 +1440,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B35" s="3">
         <v>28</v>
       </c>
@@ -1449,7 +1449,7 @@
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B36" s="3">
         <v>29</v>
       </c>
@@ -1458,7 +1458,7 @@
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B37" s="3">
         <v>30</v>
       </c>
@@ -1467,7 +1467,7 @@
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B38" s="3">
         <v>31</v>
       </c>
@@ -1488,28 +1488,28 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="7.25" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.875" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" customWidth="1"/>
+    <col min="7" max="7" width="7.21875" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" customWidth="1"/>
+    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="19.2" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1523,7 +1523,7 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1537,7 +1537,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
@@ -1551,7 +1551,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
@@ -1565,7 +1565,7 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1601,7 +1601,7 @@
         <v>create table user (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -1635,7 +1635,7 @@
         <v>user_id int ,</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -1665,7 +1665,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -1695,7 +1695,7 @@
         <v>user_pw varchar (20),</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -1725,7 +1725,7 @@
         <v>user_type int ,</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -1755,7 +1755,7 @@
         <v>user_mail varchar (100),</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -1785,7 +1785,7 @@
         <v>user_count int (3),</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -1813,7 +1813,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -1831,7 +1831,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -1849,7 +1849,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -1867,7 +1867,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -1885,7 +1885,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -1903,7 +1903,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -1921,7 +1921,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -1939,7 +1939,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -1957,7 +1957,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -1975,7 +1975,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -1993,7 +1993,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -2011,7 +2011,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L28" t="s">
         <v>20</v>
       </c>
@@ -2027,29 +2027,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B37BB6F-658B-4CC5-B8F6-0BDEDC329E03}">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="7.25" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.875" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" customWidth="1"/>
+    <col min="7" max="7" width="7.21875" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" customWidth="1"/>
+    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="19.2" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2063,7 +2063,7 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2077,7 +2077,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
@@ -2091,7 +2091,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
@@ -2105,7 +2105,7 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -2141,7 +2141,7 @@
         <v>create table board (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -2168,7 +2168,7 @@
       <c r="J10" s="1"/>
       <c r="L10" s="6"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -2196,7 +2196,7 @@
         <v>board_topic varchar (40),</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>3</v>
       </c>
@@ -2224,7 +2224,7 @@
         <v>board_main text (500),</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -2252,7 +2252,7 @@
         <v>board_smile int ,</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>5</v>
       </c>
@@ -2276,7 +2276,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -2300,7 +2300,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>7</v>
       </c>
@@ -2326,7 +2326,7 @@
         <v>board_update datetime ,</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -2352,7 +2352,7 @@
         <v xml:space="preserve">user_id int </v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>9</v>
       </c>
@@ -2370,7 +2370,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -2388,7 +2388,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>11</v>
       </c>
@@ -2406,7 +2406,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -2424,7 +2424,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>13</v>
       </c>
@@ -2442,7 +2442,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -2460,7 +2460,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>15</v>
       </c>
@@ -2478,7 +2478,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -2496,7 +2496,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>17</v>
       </c>
@@ -2514,7 +2514,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -2532,7 +2532,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>19</v>
       </c>
@@ -2550,7 +2550,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -2568,7 +2568,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>21</v>
       </c>
@@ -2586,7 +2586,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>22</v>
       </c>
@@ -2604,7 +2604,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>23</v>
       </c>
@@ -2622,7 +2622,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="33" spans="12:12" x14ac:dyDescent="0.15">
+    <row r="33" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L33" t="s">
         <v>20</v>
       </c>
@@ -2642,25 +2642,25 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="7.25" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.875" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" customWidth="1"/>
+    <col min="7" max="7" width="7.21875" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" customWidth="1"/>
+    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="19.2" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2674,7 +2674,7 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2688,7 +2688,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
@@ -2702,7 +2702,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
@@ -2716,7 +2716,7 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -2752,7 +2752,7 @@
         <v>create table reply (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -2782,7 +2782,7 @@
         <v>reply_id int ,</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -2810,7 +2810,7 @@
         <v>reply_main text (400),</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -2834,7 +2834,7 @@
         <v>reply_date datetime ,</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -2860,7 +2860,7 @@
         <v>user_id int ,</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -2886,7 +2886,7 @@
         <v xml:space="preserve">board_id int </v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -2904,7 +2904,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -2922,7 +2922,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -2940,7 +2940,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -2958,7 +2958,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -2976,7 +2976,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -2994,7 +2994,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -3012,7 +3012,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -3030,7 +3030,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -3048,7 +3048,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -3066,7 +3066,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -3084,7 +3084,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -3102,7 +3102,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -3120,7 +3120,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L28" t="s">
         <v>20</v>
       </c>
@@ -3137,28 +3137,28 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="7.25" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.875" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" customWidth="1"/>
+    <col min="7" max="7" width="7.21875" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" customWidth="1"/>
+    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="19.2" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3172,7 +3172,7 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -3186,7 +3186,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
@@ -3200,7 +3200,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
@@ -3214,7 +3214,7 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -3246,7 +3246,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -3272,7 +3272,7 @@
       </c>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -3298,7 +3298,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>3</v>
       </c>
@@ -3324,7 +3324,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -3338,7 +3338,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>5</v>
       </c>
@@ -3352,7 +3352,7 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -3366,7 +3366,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>7</v>
       </c>
@@ -3380,7 +3380,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -3394,7 +3394,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>9</v>
       </c>
@@ -3408,7 +3408,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -3422,7 +3422,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>11</v>
       </c>
@@ -3436,7 +3436,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -3450,7 +3450,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>13</v>
       </c>
@@ -3464,7 +3464,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -3478,7 +3478,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>15</v>
       </c>
@@ -3492,7 +3492,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -3506,7 +3506,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>17</v>
       </c>
@@ -3520,7 +3520,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -3534,7 +3534,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>19</v>
       </c>
@@ -3548,7 +3548,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -3577,25 +3577,25 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="7.25" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.875" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" customWidth="1"/>
+    <col min="7" max="7" width="7.21875" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" customWidth="1"/>
+    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="19.2" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3609,7 +3609,7 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -3623,7 +3623,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
@@ -3637,7 +3637,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
@@ -3651,7 +3651,7 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -3683,7 +3683,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -3709,7 +3709,7 @@
       </c>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -3735,7 +3735,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>3</v>
       </c>
@@ -3749,7 +3749,7 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -3763,7 +3763,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>5</v>
       </c>
@@ -3777,7 +3777,7 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -3791,7 +3791,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>7</v>
       </c>
@@ -3805,7 +3805,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -3819,7 +3819,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>9</v>
       </c>
@@ -3833,7 +3833,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -3847,7 +3847,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>11</v>
       </c>
@@ -3861,7 +3861,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -3875,7 +3875,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>13</v>
       </c>
@@ -3889,7 +3889,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -3903,7 +3903,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>15</v>
       </c>
@@ -3917,7 +3917,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -3931,7 +3931,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>17</v>
       </c>
@@ -3945,7 +3945,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -3959,7 +3959,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>19</v>
       </c>
@@ -3973,7 +3973,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>20</v>
       </c>
